--- a/FormFilter/static/RN Inspire.xlsx
+++ b/FormFilter/static/RN Inspire.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="792" windowWidth="22428" windowHeight="8664"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Submissions" sheetId="1" r:id="rId1"/>
+    <sheet name="Submissions" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames/>
+  <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="117">
   <si>
     <t>Submission Date</t>
   </si>
@@ -196,6 +197,9 @@
     <t>No Label</t>
   </si>
   <si>
+    <t>Upload resume</t>
+  </si>
+  <si>
     <t>Friends's References &gt;&gt;  &gt;&gt; Name</t>
   </si>
   <si>
@@ -239,6 +243,133 @@
   </si>
   <si>
     <t>Friends's References &gt;&gt;  &gt;&gt; Current Job / Areas of Interest 5</t>
+  </si>
+  <si>
+    <t>Data analyst</t>
+  </si>
+  <si>
+    <t>tecnical</t>
+  </si>
+  <si>
+    <t>fresher</t>
+  </si>
+  <si>
+    <t>negotiable</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>job.com</t>
+  </si>
+  <si>
+    <t>Hiten Sharma</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>0987654321</t>
+  </si>
+  <si>
+    <t>hiten@gmail.com</t>
+  </si>
+  <si>
+    <t>1-1-1991</t>
+  </si>
+  <si>
+    <t>abcd, raj nagar, bharaj colony, ahemdabad</t>
+  </si>
+  <si>
+    <t>same</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>gemin</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>B.tech</t>
+  </si>
+  <si>
+    <t>M.tech</t>
+  </si>
+  <si>
+    <t>Functions / Areas of Interest: technical
+Strengths: hard working
+Achievements / Recognitions: win 2 hackathons
+Computer Applications: knowledge of all data science frameworks
+Languages Known: hindi, english
+Any other information: no</t>
+  </si>
+  <si>
+    <t>https://www.jotform.com/uploads/startinspire16/81481177135457/4049402198117030008/New Text Document.txt</t>
+  </si>
+  <si>
+    <t>video editor</t>
+  </si>
+  <si>
+    <t>ooo</t>
+  </si>
+  <si>
+    <t>rahul</t>
+  </si>
+  <si>
+    <t>rahul@gmail.com</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>pqr</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Functions / Areas of Interest: video editing
+Strengths: xxx
+Achievements / Recognitions: xxx
+Computer Applications: Adobe
+Languages Known: hindi, english
+Any other information: xxx</t>
+  </si>
+  <si>
+    <t>6543789021</t>
   </si>
   <si>
     <t>aaa</t>
@@ -251,143 +382,31 @@
 Languages Known: aaa
 Any other information: aaa</t>
   </si>
-  <si>
-    <t xml:space="preserve">                2018-05-29 07:19:15</t>
-  </si>
-  <si>
-    <t>android app developer</t>
-  </si>
-  <si>
-    <t>Technical</t>
-  </si>
-  <si>
-    <t>2 lc</t>
-  </si>
-  <si>
-    <t>3 lc</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>internet</t>
-  </si>
-  <si>
-    <t>rahul kumar</t>
-  </si>
-  <si>
-    <t>rahulkumar@gmail.com</t>
-  </si>
-  <si>
-    <t>abcd</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>10th</t>
-  </si>
-  <si>
-    <t>alok</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>12th</t>
-  </si>
-  <si>
-    <t>B.Tech</t>
-  </si>
-  <si>
-    <t>ABCD</t>
-  </si>
-  <si>
-    <t>M.Tech</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>Techno</t>
-  </si>
-  <si>
-    <t>app developer</t>
-  </si>
-  <si>
-    <t>server management</t>
-  </si>
-  <si>
-    <t>2lc</t>
-  </si>
-  <si>
-    <t>techiino</t>
-  </si>
-  <si>
-    <t xml:space="preserve">app developer </t>
-  </si>
-  <si>
-    <t>front end development</t>
-  </si>
-  <si>
-    <t>2.5 lc</t>
-  </si>
-  <si>
-    <t>naveen</t>
-  </si>
-  <si>
-    <t>web developer</t>
-  </si>
-  <si>
-    <t>milan</t>
-  </si>
-  <si>
-    <t>digital marketing</t>
-  </si>
-  <si>
-    <t>kiran</t>
-  </si>
-  <si>
-    <t>mehul</t>
-  </si>
-  <si>
-    <t>social media marketing</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Functions / Areas of Interest: aaa
-Strengths: aaa
-Achievements / Recognitions: aaa
-Computer Applications: aaaa
-Languages Known: aaa
-Any other information: aaa</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd hh:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -396,7 +415,10 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -406,67 +428,46 @@
     </fill>
   </fills>
   <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+  <cellXfs count="5">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
@@ -756,94 +757,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:BX4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="25.109375" customWidth="1"/>
-    <col min="2" max="2" width="60.21875" bestFit="1"/>
-    <col min="3" max="3" width="53.109375" bestFit="1"/>
-    <col min="4" max="4" width="49.5546875" bestFit="1"/>
-    <col min="5" max="5" width="50.77734375" bestFit="1"/>
-    <col min="6" max="6" width="56.6640625" bestFit="1"/>
-    <col min="7" max="7" width="43.6640625" bestFit="1"/>
-    <col min="8" max="8" width="59" bestFit="1"/>
-    <col min="9" max="9" width="63.77734375" bestFit="1"/>
-    <col min="10" max="10" width="67.33203125" bestFit="1"/>
-    <col min="11" max="11" width="54.33203125" bestFit="1"/>
-    <col min="12" max="12" width="63.77734375" bestFit="1"/>
-    <col min="13" max="13" width="68.44140625" bestFit="1"/>
-    <col min="14" max="14" width="63.77734375" bestFit="1"/>
-    <col min="15" max="15" width="55.44140625" bestFit="1"/>
-    <col min="16" max="16" width="85" bestFit="1"/>
-    <col min="17" max="17" width="88.5546875" bestFit="1"/>
-    <col min="18" max="18" width="89.77734375" bestFit="1"/>
-    <col min="19" max="19" width="82.6640625" bestFit="1"/>
-    <col min="20" max="20" width="88.5546875" bestFit="1"/>
-    <col min="21" max="21" width="87.33203125" bestFit="1"/>
-    <col min="22" max="22" width="90.88671875" bestFit="1"/>
-    <col min="23" max="23" width="92.109375" bestFit="1"/>
-    <col min="24" max="24" width="85" bestFit="1"/>
-    <col min="25" max="25" width="90.88671875" bestFit="1"/>
-    <col min="26" max="26" width="87.33203125" bestFit="1"/>
-    <col min="27" max="27" width="90.88671875" bestFit="1"/>
-    <col min="28" max="28" width="92.109375" bestFit="1"/>
-    <col min="29" max="29" width="85" bestFit="1"/>
-    <col min="30" max="30" width="90.88671875" bestFit="1"/>
-    <col min="31" max="31" width="87.33203125" bestFit="1"/>
-    <col min="32" max="32" width="90.88671875" bestFit="1"/>
-    <col min="33" max="33" width="92.109375" bestFit="1"/>
-    <col min="34" max="34" width="85" bestFit="1"/>
-    <col min="35" max="35" width="90.88671875" bestFit="1"/>
-    <col min="36" max="36" width="39" bestFit="1"/>
-    <col min="37" max="37" width="40.109375" bestFit="1"/>
-    <col min="38" max="38" width="49.5546875" bestFit="1"/>
-    <col min="39" max="39" width="35.44140625" bestFit="1"/>
-    <col min="40" max="40" width="33.109375" bestFit="1"/>
-    <col min="41" max="41" width="37.77734375" bestFit="1"/>
-    <col min="42" max="42" width="41.33203125" bestFit="1"/>
-    <col min="43" max="43" width="42.5546875" bestFit="1"/>
-    <col min="44" max="44" width="52" bestFit="1"/>
-    <col min="45" max="45" width="37.77734375" bestFit="1"/>
-    <col min="46" max="46" width="35.44140625" bestFit="1"/>
-    <col min="47" max="47" width="40.109375" bestFit="1"/>
-    <col min="48" max="48" width="41.33203125" bestFit="1"/>
-    <col min="49" max="49" width="42.5546875" bestFit="1"/>
-    <col min="50" max="50" width="52" bestFit="1"/>
-    <col min="51" max="51" width="37.77734375" bestFit="1"/>
-    <col min="52" max="52" width="35.44140625" bestFit="1"/>
-    <col min="53" max="53" width="40.109375" bestFit="1"/>
-    <col min="54" max="54" width="41.33203125" bestFit="1"/>
-    <col min="55" max="55" width="42.5546875" bestFit="1"/>
-    <col min="56" max="56" width="52" bestFit="1"/>
-    <col min="57" max="57" width="37.77734375" bestFit="1"/>
-    <col min="58" max="58" width="35.44140625" bestFit="1"/>
-    <col min="59" max="59" width="40.109375" bestFit="1"/>
-    <col min="60" max="60" width="77.5546875" customWidth="1"/>
-    <col min="61" max="61" width="39" bestFit="1"/>
-    <col min="62" max="62" width="41.33203125" bestFit="1"/>
-    <col min="63" max="63" width="70.88671875" bestFit="1"/>
-    <col min="64" max="64" width="41.33203125" bestFit="1"/>
-    <col min="65" max="65" width="43.6640625" bestFit="1"/>
-    <col min="66" max="66" width="73.21875" bestFit="1"/>
-    <col min="67" max="67" width="41.33203125" bestFit="1"/>
-    <col min="68" max="68" width="43.6640625" bestFit="1"/>
-    <col min="69" max="69" width="73.21875" bestFit="1"/>
-    <col min="70" max="70" width="41.33203125" bestFit="1"/>
-    <col min="71" max="71" width="43.6640625" bestFit="1"/>
-    <col min="72" max="72" width="73.21875" bestFit="1"/>
-    <col min="73" max="73" width="41.33203125" bestFit="1"/>
-    <col min="74" max="74" width="43.6640625" bestFit="1"/>
-    <col min="75" max="75" width="73.21875" bestFit="1"/>
+    <col min="1" max="1" width="21.256594" bestFit="true" style="0"/>
+    <col min="2" max="2" width="60.227016" bestFit="true" style="0"/>
+    <col min="3" max="3" width="53.141484" bestFit="true" style="0"/>
+    <col min="4" max="4" width="49.598719" bestFit="true" style="0"/>
+    <col min="5" max="5" width="50.779641" bestFit="true" style="0"/>
+    <col min="6" max="6" width="56.68425" bestFit="true" style="0"/>
+    <col min="7" max="7" width="43.694109" bestFit="true" style="0"/>
+    <col min="8" max="8" width="59.046094" bestFit="true" style="0"/>
+    <col min="9" max="9" width="63.769781" bestFit="true" style="0"/>
+    <col min="10" max="10" width="67.312547" bestFit="true" style="0"/>
+    <col min="11" max="11" width="54.322406" bestFit="true" style="0"/>
+    <col min="12" max="12" width="63.769781" bestFit="true" style="0"/>
+    <col min="13" max="13" width="68.493469" bestFit="true" style="0"/>
+    <col min="14" max="14" width="63.769781" bestFit="true" style="0"/>
+    <col min="15" max="15" width="55.503328" bestFit="true" style="0"/>
+    <col min="16" max="16" width="85.026375" bestFit="true" style="0"/>
+    <col min="17" max="17" width="88.569141" bestFit="true" style="0"/>
+    <col min="18" max="18" width="89.750063" bestFit="true" style="0"/>
+    <col min="19" max="19" width="82.664531" bestFit="true" style="0"/>
+    <col min="20" max="20" width="88.569141" bestFit="true" style="0"/>
+    <col min="21" max="21" width="87.38821900000001" bestFit="true" style="0"/>
+    <col min="22" max="22" width="90.930984" bestFit="true" style="0"/>
+    <col min="23" max="23" width="92.111906" bestFit="true" style="0"/>
+    <col min="24" max="24" width="85.026375" bestFit="true" style="0"/>
+    <col min="25" max="25" width="90.930984" bestFit="true" style="0"/>
+    <col min="26" max="26" width="87.38821900000001" bestFit="true" style="0"/>
+    <col min="27" max="27" width="90.930984" bestFit="true" style="0"/>
+    <col min="28" max="28" width="92.111906" bestFit="true" style="0"/>
+    <col min="29" max="29" width="85.026375" bestFit="true" style="0"/>
+    <col min="30" max="30" width="90.930984" bestFit="true" style="0"/>
+    <col min="31" max="31" width="87.38821900000001" bestFit="true" style="0"/>
+    <col min="32" max="32" width="90.930984" bestFit="true" style="0"/>
+    <col min="33" max="33" width="92.111906" bestFit="true" style="0"/>
+    <col min="34" max="34" width="85.026375" bestFit="true" style="0"/>
+    <col min="35" max="35" width="90.930984" bestFit="true" style="0"/>
+    <col min="36" max="36" width="38.970422" bestFit="true" style="0"/>
+    <col min="37" max="37" width="40.151344" bestFit="true" style="0"/>
+    <col min="38" max="38" width="49.598719" bestFit="true" style="0"/>
+    <col min="39" max="39" width="35.427656" bestFit="true" style="0"/>
+    <col min="40" max="40" width="33.065813" bestFit="true" style="0"/>
+    <col min="41" max="41" width="37.7895" bestFit="true" style="0"/>
+    <col min="42" max="42" width="41.332266" bestFit="true" style="0"/>
+    <col min="43" max="43" width="42.513188" bestFit="true" style="0"/>
+    <col min="44" max="44" width="51.960563" bestFit="true" style="0"/>
+    <col min="45" max="45" width="37.7895" bestFit="true" style="0"/>
+    <col min="46" max="46" width="35.427656" bestFit="true" style="0"/>
+    <col min="47" max="47" width="40.151344" bestFit="true" style="0"/>
+    <col min="48" max="48" width="41.332266" bestFit="true" style="0"/>
+    <col min="49" max="49" width="42.513188" bestFit="true" style="0"/>
+    <col min="50" max="50" width="51.960563" bestFit="true" style="0"/>
+    <col min="51" max="51" width="37.7895" bestFit="true" style="0"/>
+    <col min="52" max="52" width="35.427656" bestFit="true" style="0"/>
+    <col min="53" max="53" width="40.151344" bestFit="true" style="0"/>
+    <col min="54" max="54" width="41.332266" bestFit="true" style="0"/>
+    <col min="55" max="55" width="42.513188" bestFit="true" style="0"/>
+    <col min="56" max="56" width="51.960563" bestFit="true" style="0"/>
+    <col min="57" max="57" width="37.7895" bestFit="true" style="0"/>
+    <col min="58" max="58" width="35.427656" bestFit="true" style="0"/>
+    <col min="59" max="59" width="40.151344" bestFit="true" style="0"/>
+    <col min="60" max="60" width="76.759922" bestFit="true" style="0"/>
+    <col min="61" max="61" width="122.815875" bestFit="true" style="0"/>
+    <col min="62" max="62" width="38.970422" bestFit="true" style="0"/>
+    <col min="63" max="63" width="41.332266" bestFit="true" style="0"/>
+    <col min="64" max="64" width="70.855313" bestFit="true" style="0"/>
+    <col min="65" max="65" width="41.332266" bestFit="true" style="0"/>
+    <col min="66" max="66" width="43.694109" bestFit="true" style="0"/>
+    <col min="67" max="67" width="73.217156" bestFit="true" style="0"/>
+    <col min="68" max="68" width="41.332266" bestFit="true" style="0"/>
+    <col min="69" max="69" width="43.694109" bestFit="true" style="0"/>
+    <col min="70" max="70" width="73.217156" bestFit="true" style="0"/>
+    <col min="71" max="71" width="41.332266" bestFit="true" style="0"/>
+    <col min="72" max="72" width="43.694109" bestFit="true" style="0"/>
+    <col min="73" max="73" width="73.217156" bestFit="true" style="0"/>
+    <col min="74" max="74" width="41.332266" bestFit="true" style="0"/>
+    <col min="75" max="75" width="43.694109" bestFit="true" style="0"/>
+    <col min="76" max="76" width="73.217156" bestFit="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:76">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1066,211 +1071,268 @@
       <c r="BV1" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="BW1" s="4" t="s">
+      <c r="BW1" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="BX1" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
-    <row r="2" spans="1:75" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:76">
       <c r="A2" s="1">
-        <v>43249.305034722223</v>
+        <v>43267.06734953704</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH2" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>85</v>
+      </c>
+      <c r="L2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O2" t="s">
+        <v>89</v>
+      </c>
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>91</v>
+      </c>
+      <c r="S2">
+        <v>2003</v>
+      </c>
+      <c r="T2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U2" t="s">
+        <v>93</v>
+      </c>
+      <c r="V2" t="s">
+        <v>91</v>
+      </c>
+      <c r="X2">
+        <v>2005</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC2">
+        <v>2009</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH2">
+        <v>2011</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>96</v>
       </c>
       <c r="BI2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:76">
+      <c r="A3" s="1">
+        <v>43255.52465277778</v>
+      </c>
+      <c r="B3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>222</v>
+      </c>
+      <c r="F3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>83</v>
+      </c>
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" t="s">
+        <v>86</v>
+      </c>
+      <c r="M3" t="s">
+        <v>99</v>
+      </c>
+      <c r="N3" t="s">
+        <v>99</v>
+      </c>
+      <c r="O3" t="s">
+        <v>89</v>
+      </c>
+      <c r="P3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>102</v>
+      </c>
+      <c r="R3" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3">
+        <v>2006</v>
+      </c>
+      <c r="T3" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" t="s">
         <v>105</v>
       </c>
-      <c r="BJ2">
-        <v>4567890123</v>
-      </c>
-      <c r="BK2" t="s">
+      <c r="W3" t="s">
         <v>106</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="X3">
+        <v>2008</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" t="s">
         <v>107</v>
       </c>
-      <c r="BM2">
-        <v>6789012345</v>
-      </c>
-      <c r="BN2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="3" spans="1:75" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" t="s">
-        <v>80</v>
-      </c>
-      <c r="E3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F3" t="s">
-        <v>82</v>
-      </c>
-      <c r="G3" t="s">
-        <v>83</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3">
-        <v>7865432109</v>
-      </c>
-      <c r="J3">
-        <v>1234567890</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L3" s="6">
-        <v>32395</v>
-      </c>
-      <c r="M3" t="s">
-        <v>86</v>
-      </c>
-      <c r="N3" t="s">
-        <v>86</v>
-      </c>
-      <c r="O3" t="s">
-        <v>87</v>
-      </c>
-      <c r="P3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3">
-        <v>2004</v>
-      </c>
-      <c r="T3" t="s">
-        <v>91</v>
-      </c>
-      <c r="U3" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" t="s">
-        <v>89</v>
-      </c>
-      <c r="W3" t="s">
-        <v>90</v>
-      </c>
-      <c r="X3">
-        <v>2006</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>94</v>
-      </c>
       <c r="AC3">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="AD3" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AE3" t="s">
         <v>95</v>
       </c>
       <c r="AF3" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="AG3" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="AH3">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="AI3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="AJ3" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="AK3" t="s">
-        <v>98</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>99</v>
-      </c>
-      <c r="AM3">
-        <v>2012</v>
-      </c>
-      <c r="AN3">
-        <v>2014</v>
-      </c>
-      <c r="AO3" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="AP3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="AQ3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AR3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AS3">
-        <v>2014</v>
-      </c>
-      <c r="AT3">
-        <v>2016</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH3" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>113</v>
+      </c>
+      <c r="BJ3" t="s">
         <v>112</v>
       </c>
-      <c r="BI3" t="s">
-        <v>109</v>
-      </c>
-      <c r="BJ3">
-        <v>9012345678</v>
-      </c>
       <c r="BK3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="BL3" t="s">
         <v>110</v>
       </c>
-      <c r="BM3">
-        <v>5463721890</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>111</v>
+    </row>
+    <row r="4" spans="1:76">
+      <c r="A4" s="1">
+        <v>43249.30503472222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>115</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1"/>
-  </hyperlinks>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
 </worksheet>
 </file>